--- a/requirements/Requirements Excel/Requirement Error Logger.xlsx
+++ b/requirements/Requirements Excel/Requirement Error Logger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\Bird_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C92DE60-DF57-4B4F-B2E2-6606D4800992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3BAC5-5BD9-4A05-A9E4-98845B21CE2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -663,7 +663,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>

--- a/requirements/Requirements Excel/Requirement Error Logger.xlsx
+++ b/requirements/Requirements Excel/Requirement Error Logger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\Bird_Requirements\requirements\Requirements Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3BAC5-5BD9-4A05-A9E4-98845B21CE2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F54AF88-8B53-4741-A82A-FDE4417125BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Use Case ID:</t>
   </si>
@@ -63,9 +63,6 @@
     <t>CRUD</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Streamlit web application, backend database</t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>none; automatic logging on error</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -232,24 +238,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -287,32 +280,14 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,165 +603,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F740AA-2811-43A6-AEB5-CDD3E21F697A}">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="41.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="90.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
